--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\podesscript\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8E7798-F4A3-4A69-B8F1-C947B59A9184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76171D91-C296-43AB-8E6B-27FB186D76AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="690" windowWidth="15135" windowHeight="15600" firstSheet="21" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -741,12 +741,6 @@
     <t>Kemudahan Mencapai Sarana Kesehatan Terdekat Bagi Desa/Kelurahan yang Tidak ada Sarana Kesehatan Menurut Desa/Kelurahan dan Jenis Sarana Kesehatan di Kecamatan xxx, 2020</t>
   </si>
   <si>
-    <t>Banyaknya Kejadian Bencana Alam Menurut Desa/Kelurahan dan Jenis Bencana Alam di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Korban Jiwa Akibat Bencana Alam Menurut Desa/Kelurahan dan Jenis Bencana Alam di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
     <t>Ada</t>
   </si>
   <si>
@@ -846,6 +840,12 @@
   </si>
   <si>
     <t>BPS, Pendataan Potensi Desa (Podes) 2018, 2019 dan 2020</t>
+  </si>
+  <si>
+    <t>Banyaknya Kejadian Bencana Alam Menurut Desa/Kelurahan dan Jenis Bencana Alam di Kecamatan xxx, 2019</t>
+  </si>
+  <si>
+    <t>Banyaknya Korban Jiwa Akibat Bencana Alam Menurut Desa/Kelurahan dan Jenis Bencana Alam di Kecamatan xxx, 2019</t>
   </si>
 </sst>
 </file>
@@ -1606,31 +1606,52 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" applyBorder="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -1642,23 +1663,20 @@
     <xf numFmtId="49" fontId="35" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1666,20 +1684,11 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1687,11 +1696,8 @@
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1699,30 +1705,24 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="39" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1732,7 +1732,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2062,42 +2062,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="96" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="103" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="66" t="s">
         <v>4</v>
       </c>
@@ -2107,15 +2107,15 @@
       <c r="G3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="64" t="s">
         <v>8</v>
       </c>
@@ -2160,54 +2160,54 @@
       <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="69"/>
       <c r="F8" s="70"/>
       <c r="G8" s="69"/>
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2238,31 +2238,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>10</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
@@ -2274,12 +2274,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -2292,9 +2292,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2302,9 +2302,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2312,21 +2312,21 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28">
         <v>0</v>
       </c>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2350,29 +2350,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -2380,12 +2386,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2417,31 +2417,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>11</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
@@ -2453,12 +2453,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -2471,9 +2471,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="19"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -2481,9 +2481,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -2491,31 +2491,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2523,34 +2523,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -2559,6 +2554,11 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2590,31 +2590,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>12</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
@@ -2626,12 +2626,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -2644,9 +2644,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2654,9 +2654,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2664,31 +2664,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2696,29 +2696,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -2726,12 +2732,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2762,31 +2762,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>13</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
@@ -2798,12 +2798,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -2816,9 +2816,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2826,9 +2826,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2836,31 +2836,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2868,29 +2868,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -2898,12 +2904,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2942,20 +2942,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>14</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
       <c r="Y1">
         <v>0</v>
       </c>
@@ -2988,12 +2988,12 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
@@ -3006,12 +3006,12 @@
       <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="3" t="s">
         <v>50</v>
       </c>
@@ -3032,12 +3032,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="62" t="s">
         <v>8</v>
       </c>
@@ -3050,12 +3050,12 @@
       <c r="H5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="62" t="s">
         <v>54</v>
       </c>
@@ -3077,17 +3077,17 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="42"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="43"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
@@ -3095,17 +3095,17 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="42"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="43"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -3113,17 +3113,17 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="42"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="43"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
@@ -3149,18 +3149,18 @@
     </row>
     <row r="10" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="120" t="s">
+      <c r="I11" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="120"/>
+      <c r="J11" s="123"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -3169,36 +3169,36 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="120"/>
-      <c r="K12" s="127" t="s">
+      <c r="J12" s="123"/>
+      <c r="K12" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
     </row>
     <row r="13" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C15" s="31" t="s">
@@ -3212,18 +3212,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -3232,6 +3220,18 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="83" orientation="portrait" r:id="rId1"/>
@@ -3269,19 +3269,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>15</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3296,62 +3296,62 @@
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="131" t="s">
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="117" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="116" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
       <c r="L5" s="41" t="s">
         <v>69</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="128"/>
+      <c r="N5" s="131"/>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="62" t="s">
         <v>8</v>
       </c>
@@ -3361,12 +3361,12 @@
       <c r="G6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="62" t="s">
         <v>11</v>
       </c>
@@ -3379,85 +3379,85 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="104"/>
+      <c r="I12" s="111"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -3465,33 +3465,33 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="104" t="s">
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="127" t="s">
+      <c r="I13" s="111"/>
+      <c r="J13" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
     </row>
     <row r="14" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="31"/>
@@ -3501,17 +3501,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="H4:K5"/>
@@ -3528,6 +3517,17 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:N13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3565,19 +3565,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>16</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
       <c r="R1">
         <v>0</v>
       </c>
@@ -3610,32 +3610,32 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="131" t="s">
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="117" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="116" t="s">
         <v>68</v>
       </c>
       <c r="R4">
@@ -3646,24 +3646,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
       <c r="L5" s="41" t="s">
         <v>69</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="128"/>
+      <c r="N5" s="131"/>
       <c r="R5">
         <v>4</v>
       </c>
@@ -3672,12 +3672,12 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="62" t="s">
         <v>8</v>
       </c>
@@ -3687,12 +3687,12 @@
       <c r="G6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="62" t="s">
         <v>11</v>
       </c>
@@ -3705,48 +3705,48 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="72"/>
       <c r="F7" s="72"/>
       <c r="G7" s="72"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
       <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="72"/>
       <c r="F8" s="72"/>
       <c r="G8" s="72"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="72"/>
       <c r="M8" s="72"/>
       <c r="N8" s="72"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="72"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
       <c r="L9" s="72"/>
       <c r="M9" s="72"/>
       <c r="N9" s="72"/>
@@ -3769,17 +3769,17 @@
     </row>
     <row r="11" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="104"/>
+      <c r="I12" s="111"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -3787,65 +3787,55 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="104" t="s">
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="127" t="s">
+      <c r="I13" s="111"/>
+      <c r="J13" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
     </row>
     <row r="14" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
     </row>
     <row r="16" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
@@ -3862,6 +3852,16 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3898,30 +3898,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>17</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2018</v>
       </c>
@@ -3930,12 +3930,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -3945,79 +3945,74 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -4026,6 +4021,11 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4043,7 +4043,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4066,20 +4066,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>18</v>
       </c>
-      <c r="D1" s="130" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4098,12 +4098,12 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>75</v>
       </c>
@@ -4116,12 +4116,12 @@
       <c r="H4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="4" t="s">
         <v>79</v>
       </c>
@@ -4131,12 +4131,12 @@
       <c r="O4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="4" t="s">
         <v>82</v>
       </c>
@@ -4148,12 +4148,12 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="62" t="s">
         <v>8</v>
       </c>
@@ -4166,12 +4166,12 @@
       <c r="H5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="62" t="s">
         <v>54</v>
       </c>
@@ -4181,12 +4181,12 @@
       <c r="O5" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="118" t="s">
+      <c r="P5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="62" t="s">
         <v>57</v>
       </c>
@@ -4199,127 +4199,127 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="129" t="s">
+      <c r="I9" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="129" t="s">
+      <c r="P9" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="120" t="s">
+      <c r="P11" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="120"/>
+      <c r="Q11" s="123"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4327,42 +4327,42 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="127" t="s">
+      <c r="Q12" s="123"/>
+      <c r="R12" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
     </row>
     <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
@@ -4372,29 +4372,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -4403,6 +4380,29 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="96" orientation="portrait" r:id="rId1"/>
@@ -4424,7 +4424,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,20 +4446,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>19</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4478,12 +4478,12 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>75</v>
       </c>
@@ -4496,12 +4496,12 @@
       <c r="H4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="4" t="s">
         <v>79</v>
       </c>
@@ -4511,12 +4511,12 @@
       <c r="O4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="4" t="s">
         <v>82</v>
       </c>
@@ -4528,12 +4528,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="62" t="s">
         <v>8</v>
       </c>
@@ -4546,12 +4546,12 @@
       <c r="H5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="62" t="s">
         <v>54</v>
       </c>
@@ -4561,12 +4561,12 @@
       <c r="O5" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="118" t="s">
+      <c r="P5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="62" t="s">
         <v>57</v>
       </c>
@@ -4579,24 +4579,24 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
@@ -4604,24 +4604,24 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
@@ -4629,80 +4629,80 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="36"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="125" t="s">
+      <c r="I9" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="125" t="s">
+      <c r="P9" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="120" t="s">
+      <c r="P11" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="120"/>
+      <c r="Q11" s="123"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4710,42 +4710,42 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120" t="s">
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
     </row>
     <row r="13" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
@@ -4755,29 +4755,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -4786,6 +4763,29 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4823,27 +4823,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="D1" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="88">
         <v>2018</v>
       </c>
@@ -4855,12 +4855,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="89" t="s">
         <v>8</v>
       </c>
@@ -4872,54 +4872,54 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
       <c r="G4" s="91"/>
     </row>
     <row r="5" spans="1:7" s="71" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="73"/>
       <c r="F5" s="74"/>
       <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" s="71" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="67"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="73"/>
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
     </row>
     <row r="7" spans="1:7" s="71" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68"/>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="75"/>
       <c r="F7" s="76"/>
       <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" s="72" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="104"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="60"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -4927,31 +4927,31 @@
       <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4968,7 +4968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -4986,30 +4986,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>20</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
       <c r="P1">
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R1">
         <v>5</v>
       </c>
       <c r="S1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T1">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="W1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -5046,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V2">
         <v>8</v>
@@ -5067,12 +5067,12 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>89</v>
       </c>
@@ -5082,12 +5082,12 @@
       <c r="G4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
       <c r="L4" s="4" t="s">
         <v>92</v>
       </c>
@@ -5096,12 +5096,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="62" t="s">
         <v>8</v>
       </c>
@@ -5111,12 +5111,12 @@
       <c r="G5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
       <c r="L5" s="62" t="s">
         <v>11</v>
       </c>
@@ -5126,48 +5126,48 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="137"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="35"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="35"/>
-      <c r="F7" s="137"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="35"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="137"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="35"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
       <c r="N8" s="6"/>
@@ -5189,49 +5189,49 @@
     </row>
     <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="120" t="s">
+      <c r="H11" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="120"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120" t="s">
+      <c r="I12" s="123"/>
+      <c r="J12" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="31" t="s">
@@ -5245,18 +5245,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
@@ -5265,6 +5253,18 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="85" orientation="portrait" r:id="rId1"/>
@@ -5284,7 +5284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -5306,20 +5306,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>21</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5338,12 +5338,12 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>98</v>
       </c>
@@ -5356,12 +5356,12 @@
       <c r="H4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="4" t="s">
         <v>102</v>
       </c>
@@ -5371,12 +5371,12 @@
       <c r="O4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="4" t="s">
         <v>105</v>
       </c>
@@ -5388,12 +5388,12 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="62" t="s">
         <v>8</v>
       </c>
@@ -5406,12 +5406,12 @@
       <c r="H5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="62" t="s">
         <v>54</v>
       </c>
@@ -5421,12 +5421,12 @@
       <c r="O5" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="118" t="s">
+      <c r="P5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="62" t="s">
         <v>57</v>
       </c>
@@ -5439,127 +5439,127 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="19"/>
       <c r="N6" s="25"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
       <c r="T6" s="25"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="21"/>
       <c r="N7" s="27"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
       <c r="T7" s="27"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="21"/>
       <c r="N8" s="27"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
       <c r="T8" s="27"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="125" t="s">
+      <c r="I9" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="28"/>
       <c r="N9" s="33"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="125" t="s">
+      <c r="P9" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
       <c r="T9" s="33"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="120" t="s">
+      <c r="P11" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="120"/>
+      <c r="Q11" s="123"/>
       <c r="R11" s="34" t="s">
         <v>108</v>
       </c>
@@ -5569,42 +5569,42 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120" t="s">
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
     </row>
     <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
@@ -5614,29 +5614,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -5645,6 +5622,29 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="92" orientation="portrait" r:id="rId1"/>
@@ -5680,31 +5680,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>22</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>109</v>
       </c>
@@ -5716,12 +5716,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -5734,48 +5734,48 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5783,29 +5783,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -5813,12 +5819,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -5851,32 +5851,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>23</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>112</v>
       </c>
@@ -5891,12 +5891,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -5912,9 +5912,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -5922,9 +5922,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -5932,21 +5932,21 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5966,28 +5966,28 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
@@ -5997,6 +5997,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6004,12 +6010,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -6043,30 +6043,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>24</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -6075,12 +6075,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -6090,71 +6090,71 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6188,7 +6188,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,24 +6202,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>25</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
       <c r="K1">
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6233,12 +6233,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>116</v>
       </c>
@@ -6256,12 +6256,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -6275,53 +6275,53 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6329,26 +6329,26 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
@@ -6357,6 +6357,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6364,12 +6370,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -6401,46 +6401,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>26</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
       <c r="E3" s="135" t="s">
         <v>123</v>
       </c>
       <c r="F3" s="135"/>
       <c r="G3" s="135"/>
-      <c r="H3" s="133" t="s">
+      <c r="H3" s="137" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="13" t="s">
         <v>125</v>
       </c>
@@ -6450,15 +6450,15 @@
       <c r="G4" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="128"/>
+      <c r="H4" s="131"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="62" t="s">
         <v>8</v>
       </c>
@@ -6618,9 +6618,9 @@
     </row>
     <row r="18" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16"/>
@@ -6628,10 +6628,10 @@
     </row>
     <row r="19" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="120"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6640,28 +6640,28 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120" t="s">
+      <c r="B21" s="123"/>
+      <c r="C21" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
     </row>
     <row r="22" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
@@ -6671,14 +6671,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="H3:H4"/>
@@ -6695,6 +6687,14 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -6711,8 +6711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6726,18 +6726,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>27</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
       <c r="I1">
         <v>1</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6758,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -6768,12 +6768,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>139</v>
       </c>
@@ -6784,22 +6784,22 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -6810,38 +6810,32 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="85" t="str">
-        <f>VLOOKUP(1,I1:J4,2,FALSE)</f>
-        <v>Darat</v>
-      </c>
-      <c r="F5" s="85" t="str">
-        <f>VLOOKUP(1,L1:M3,2,FALSE)</f>
-        <v>Ada, dengan trayek tetap</v>
-      </c>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="85"/>
       <c r="F6" s="85"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="85"/>
       <c r="F7" s="85"/>
       <c r="G7" s="6"/>
@@ -6856,34 +6850,34 @@
     </row>
     <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
@@ -6897,6 +6891,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6904,11 +6903,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -6940,18 +6934,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>28</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
       <c r="H1">
         <v>1</v>
       </c>
@@ -6972,22 +6966,22 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>145</v>
       </c>
@@ -6998,22 +6992,22 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -7035,9 +7029,9 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -7050,18 +7044,18 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -7076,34 +7070,34 @@
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
@@ -7122,6 +7116,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7129,11 +7128,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="93" orientation="portrait" r:id="rId1"/>
@@ -7164,18 +7158,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>29</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
       <c r="H1">
         <v>1</v>
       </c>
@@ -7190,16 +7184,16 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>152</v>
       </c>
@@ -7210,16 +7204,16 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -7235,27 +7229,27 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
       <c r="G7" s="6"/>
@@ -7270,34 +7264,34 @@
     </row>
     <row r="9" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
@@ -7312,6 +7306,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7319,11 +7318,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7357,31 +7351,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2018</v>
       </c>
@@ -7393,12 +7387,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -7419,119 +7413,114 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
       <c r="E6" s="61"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="93"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="93"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="61"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="61"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="61"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="58"/>
       <c r="F12" s="58"/>
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="104"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
     </row>
     <row r="16" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="A7:D7"/>
@@ -7543,6 +7532,11 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7576,31 +7570,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>4</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2018</v>
       </c>
@@ -7612,12 +7606,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -7638,176 +7632,176 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
       <c r="E6" s="36"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="36"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="36"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="36"/>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="36"/>
       <c r="F10" s="57"/>
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="36"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="36"/>
       <c r="F12" s="57"/>
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="36"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="36"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="36"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="104"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="60"/>
     </row>
     <row r="19" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
     </row>
     <row r="20" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7842,31 +7836,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2018</v>
       </c>
@@ -7878,12 +7872,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -7904,12 +7898,12 @@
       <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7948,72 +7942,72 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="94"/>
       <c r="F10" s="94"/>
       <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="120"/>
+      <c r="B13" s="123"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8044,31 +8038,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>6</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
@@ -8080,12 +8074,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -8098,9 +8092,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="46"/>
@@ -8108,9 +8102,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="27"/>
       <c r="F6" s="47"/>
       <c r="G6" s="46"/>
@@ -8118,21 +8112,21 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="27"/>
       <c r="F7" s="47"/>
       <c r="G7" s="46"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28">
         <v>24</v>
       </c>
@@ -8147,10 +8141,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8158,34 +8152,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -8194,6 +8183,11 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8211,7 +8205,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8224,31 +8218,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>7</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
@@ -8260,12 +8254,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -8278,9 +8272,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -8288,9 +8282,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -8298,31 +8292,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8330,29 +8324,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -8360,12 +8360,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8396,31 +8390,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>8</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
@@ -8432,12 +8426,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -8450,9 +8444,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="46"/>
@@ -8460,9 +8454,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="46"/>
@@ -8470,31 +8464,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
       <c r="G7" s="46"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="33"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8502,34 +8496,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -8538,6 +8527,11 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8568,31 +8562,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>9</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
@@ -8604,12 +8598,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="62" t="s">
         <v>8</v>
       </c>
@@ -8622,9 +8616,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -8632,9 +8626,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -8642,31 +8636,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8674,29 +8668,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -8704,12 +8704,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\podesscript\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76171D91-C296-43AB-8E6B-27FB186D76AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FA082D-D628-4334-82B8-E15B2DF0B7E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="690" windowWidth="15135" windowHeight="15600" firstSheet="21" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2355" windowWidth="10905" windowHeight="14025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="210">
   <si>
     <t>Tabel</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>LPG 3 Kg</t>
-  </si>
-  <si>
-    <t>LPG lebih dari 3 Kg</t>
   </si>
   <si>
     <t>Minyak Tanah</t>
@@ -687,165 +684,171 @@
     <t>Kecamatan xxx</t>
   </si>
   <si>
-    <t>Banyaknya Keluarga Menurut Desa/Kelurahan dan Jenis Pengguna Listrik di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
     <t>BPS, Pendataan Potensi Desa (Podes) 2020</t>
   </si>
   <si>
     <t>xxx</t>
   </si>
   <si>
+    <t>Sangat Mudah</t>
+  </si>
+  <si>
+    <t>Sangat Sulit</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>Sangat Kuat</t>
+  </si>
+  <si>
+    <t>Tidak ada sinyal</t>
+  </si>
+  <si>
+    <t>Ada, dengan trayek tetap</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Darat dan Air</t>
+  </si>
+  <si>
+    <t>Tidak ada angkutan umum</t>
+  </si>
+  <si>
+    <t>Udara</t>
+  </si>
+  <si>
+    <t>Diperkeras (kerikil, batu, dll)</t>
+  </si>
+  <si>
+    <t>Tanah</t>
+  </si>
+  <si>
+    <t>Sepanjang tahun kecuali saat kondisi tertentu</t>
+  </si>
+  <si>
+    <t>Tidak dapat dilalui sepanjang tahun</t>
+  </si>
+  <si>
+    <t>Jarang Beroperasi</t>
+  </si>
+  <si>
+    <t>Tidak Beroperasi</t>
+  </si>
+  <si>
+    <t>BPS, Pendataan Potensi Desa (Podes) 2018, 2019, dan 2020</t>
+  </si>
+  <si>
+    <t>BPS, Pendataan Potensi Desa (Podes) 2018, 2019 dan 2020</t>
+  </si>
+  <si>
+    <t>Banyaknya Keluarga Menurut Desa/Kelurahan dan Jenis Pengguna Listrik di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Desa/Kelurahan Menurut Keberadaan
+Penerangan Jalan Utama Desa/Kelurahan di Kecamatan xxx, 2019, 2020, dan 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Desa/Kelurahan Menurut Sumber Air Minum
+Sebagian Besar Keluarga di Kecamatan xxx, 2019, 2020,
+dan 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Desa/Kelurahan Menurut Penggunaan
+Fasilitas Tempat Buang Air Besar Sebagian Besar
+Keluarga di Kecamatan xxx, 2019, 2020, dan 2021</t>
+  </si>
+  <si>
     <t>Banyaknya Sekolah Dasar (SD) Menurut Desa/Kelurahan
-di Kecamatan xxx 2020</t>
+di Kecamatan xxx 2021</t>
   </si>
   <si>
     <t>Banyaknya Madrasah Ibtidaiyah (MI) Menurut Desa/
-Kelurahan di Kecamatan xxx, 2020</t>
+Kelurahan di Kecamatan xxx, 2021</t>
   </si>
   <si>
     <t>Banyaknya Sekolah Menengah Pertama (SMP) Menurut
-Desa/Kelurahan di Kecamatan xxx, 2020</t>
+Desa/Kelurahan di Kecamatan xxx, 2021</t>
   </si>
   <si>
     <t>Banyaknya Madrasah Tsanawiyah (MTs) Menurut Desa/
-Kelurahan di Kecamatan xxx, 2020</t>
+Kelurahan di Kecamatan xxx, 2021</t>
   </si>
   <si>
     <t>Banyaknya Sekolah Menengah Atas (SMA) Menurut Desa/
-Kelurahan di Kecamatan xxx, 2020</t>
+Kelurahan di Kecamatan xxx, 2021</t>
   </si>
   <si>
     <t>Banyaknya Madrasah Aliyah (MA) Menurut Desa/
-Kelurahan di Kecamatan xxx 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Sekolah Menengah Kejuruan (SMK) Menurut Desa/Kelurahan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Akademi/Perguruan Tinggi Menurut Desa/Kelurahan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Sangat Mudah</t>
-  </si>
-  <si>
-    <t>Sangat Sulit</t>
-  </si>
-  <si>
-    <t>Kemudahan Untuk Mencapai Sarana Pendidikan Terdekat Bagi Desa/Kelurahan yang Tidak ada Sarana Pendidikan Menurut Desa/Kelurahan dan Jenjang Pendidikan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Sarana Kesehatan Menurut Desa/Kelurahan dan Jenis Sarana Kesehatan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Kemudahan Mencapai Sarana Kesehatan Terdekat Bagi Desa/Kelurahan yang Tidak ada Sarana Kesehatan Menurut Desa/Kelurahan dan Jenis Sarana Kesehatan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Ada</t>
-  </si>
-  <si>
-    <t>Keberadaan Fasilitas/Upaya Antisipasi/Mitigasi Bencana Alam Menurut Desa/Kelurahan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Sarana dan Prasarana Ekonomi Menurut Desa/Kelurahan dan Jenisnya di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Sarana Lembaga Keuangan Yang Beroperasi Menurut Desa/Kelurahan dan Jenisnya di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Koperasi yang Masih Aktif Menurut Desa/Kelurahan dan Jenis Koperasi di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Jumlah  Menara dan  Operator Layanan Komunikasi Telepon Seluler Serta Kondisi Sinyal Telepon Seluler Menurut Desa/Kelurahan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Sarana Transportasi Antar Desa/Kelurahan Menurut Desa/Kelurahan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Kondisi Jalan Darat Antar Desa/Kelurahan Menurut Desa/Kelurahan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Keberadaan Kantor Pos/Pos Pembantu/Rumah Pos dan Perusahaan/Agen Jasa Ekspedisi Swasta Menurut Desa/Kelurahan di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Sangat Kuat</t>
-  </si>
-  <si>
-    <t>Tidak ada sinyal</t>
-  </si>
-  <si>
-    <t>Ada, dengan trayek tetap</t>
-  </si>
-  <si>
-    <t>Air</t>
-  </si>
-  <si>
-    <t>Darat dan Air</t>
-  </si>
-  <si>
-    <t>Tidak ada angkutan umum</t>
-  </si>
-  <si>
-    <t>Udara</t>
-  </si>
-  <si>
-    <t>Diperkeras (kerikil, batu, dll)</t>
-  </si>
-  <si>
-    <t>Tanah</t>
-  </si>
-  <si>
-    <t>Sepanjang tahun kecuali saat kondisi tertentu</t>
-  </si>
-  <si>
-    <t>Tidak dapat dilalui sepanjang tahun</t>
-  </si>
-  <si>
-    <t>Jarang Beroperasi</t>
-  </si>
-  <si>
-    <t>Tidak Beroperasi</t>
+Kelurahan di Kecamatan xxx 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Sekolah Menengah Kejuruan (SMK) Menurut Desa/Kelurahan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Akademi/Perguruan Tinggi Menurut Desa/Kelurahan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Kemudahan Untuk Mencapai Sarana Pendidikan Terdekat Bagi Desa/Kelurahan yang Tidak ada Sarana Pendidikan Menurut Desa/Kelurahan dan Jenjang Pendidikan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Sarana Kesehatan Menurut Desa/Kelurahan dan Jenis Sarana Kesehatan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Kemudahan Mencapai Sarana Kesehatan Terdekat Bagi Desa/Kelurahan yang Tidak ada Sarana Kesehatan Menurut Desa/Kelurahan dan Jenis Sarana Kesehatan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Warga Penderita Gizi Buruk Menurut Desa/Kelurahan di Kecamatan xxx, 2019 dan 2020</t>
+  </si>
+  <si>
+    <t>Banyaknya Kejadian Bencana Alam Menurut Desa/Kelurahan dan Jenis Bencana Alam di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Korban Jiwa Akibat Bencana Alam Menurut Desa/Kelurahan dan Jenis Bencana Alam di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Keberadaan Fasilitas/Upaya Antisipasi/Mitigasi Bencana Alam Menurut Desa/Kelurahan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Sarana dan Prasarana Ekonomi Menurut Desa/Kelurahan dan Jenisnya di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Sarana Lembaga Keuangan Yang Beroperasi Menurut Desa/Kelurahan dan Jenisnya di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Koperasi yang Masih Aktif Menurut Desa/Kelurahan dan Jenis Koperasi di Kecamatan xxx, 2021</t>
   </si>
   <si>
     <t>Banyaknya Embung Desa Menurut Desa/Kelurahan di
-Kecamatan xxx, 2019 dan 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Desa/Kelurahan yang Memiliki Kelompok Kegiatan Olahraga Menurut Jenis Olahraga dan Ketersedian Fasilitas/Lapangan Olahraga  di Kecamatan xxx, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Warga Penderita Gizi Buruk Menurut Desa/Kelurahan di Kecamatan xxx, 2018 dan 2019</t>
-  </si>
-  <si>
-    <t>Banyaknya Desa/Kelurahan Menurut Keberadaan
-Penerangan Jalan Utama Desa/Kelurahan di Kecamatan xxx, 2018, 2019, dan 2020</t>
-  </si>
-  <si>
-    <t>BPS, Pendataan Potensi Desa (Podes) 2018, 2019, dan 2020</t>
+Kecamatan xxx, 2020 dan 2021</t>
+  </si>
+  <si>
+    <t>Jumlah  Menara dan  Operator Layanan Komunikasi Telepon Seluler Serta Kondisi Sinyal Telepon Seluler Menurut Desa/Kelurahan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Desa/Kelurahan yang Memiliki Kelompok Kegiatan Olahraga Menurut Jenis Olahraga dan Ketersedian Fasilitas/Lapangan Olahraga  di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Sarana Transportasi Antar Desa/Kelurahan Menurut Desa/Kelurahan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Kondisi Jalan Darat Antar Desa/Kelurahan Menurut Desa/Kelurahan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Keberadaan Kantor Pos/Pos Pembantu/Rumah Pos dan Perusahaan/Agen Jasa Ekspedisi Swasta Menurut Desa/Kelurahan di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>LPG 5,5 Kg</t>
+  </si>
+  <si>
+    <t>LPG 12 Kg</t>
   </si>
   <si>
     <t>Banyaknya Desa/Kelurahan Menurut Jenis Bahan Bakar
 untuk Memasak yang Digunakan Oleh Sebagian Besar
-Keluarga di Kecamatan xxx, 2018, 2019, dan 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Desa/Kelurahan Menurut Sumber Air Minum
-Sebagian Besar Keluarga di Kecamatan xxx, 2018, 2019,
-dan 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Desa/Kelurahan Menurut Penggunaan
-Fasilitas Tempat Buang Air Besar Sebagian Besar
-Keluarga di Kecamatan xxx, 2018, 2019, dan 2020</t>
-  </si>
-  <si>
-    <t>BPS, Pendataan Potensi Desa (Podes) 2018, 2019 dan 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Kejadian Bencana Alam Menurut Desa/Kelurahan dan Jenis Bencana Alam di Kecamatan xxx, 2019</t>
-  </si>
-  <si>
-    <t>Banyaknya Korban Jiwa Akibat Bencana Alam Menurut Desa/Kelurahan dan Jenis Bencana Alam di Kecamatan xxx, 2019</t>
+Keluarga di Kecamatan xxx, 2021</t>
   </si>
 </sst>
 </file>
@@ -1510,9 +1513,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1600,24 +1600,33 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1627,18 +1636,21 @@
     <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1654,13 +1666,10 @@
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1678,51 +1687,45 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1732,8 +1735,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2049,7 +2052,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,152 +2065,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="98" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="103" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="96" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="66" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="98"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="64" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
     </row>
     <row r="10" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2225,7 +2228,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,63 +2241,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>10</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2302,9 +2305,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2312,21 +2315,21 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="28">
         <v>0</v>
       </c>
@@ -2339,10 +2342,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2350,35 +2353,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -2386,6 +2383,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2403,7 +2406,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,63 +2420,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>11</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="19"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -2481,9 +2484,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="21"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -2491,31 +2494,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2523,29 +2526,34 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -2554,11 +2562,6 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2576,7 +2579,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,63 +2593,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>12</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2654,9 +2657,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2664,31 +2667,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2696,35 +2699,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -2732,6 +2729,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2749,7 +2752,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,63 +2765,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>13</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2826,9 +2829,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2836,31 +2839,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2868,35 +2871,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -2904,6 +2901,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2921,7 +2924,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Z5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,38 +2945,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>14</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
       <c r="Y1">
         <v>0</v>
       </c>
-      <c r="Z1" s="84" t="s">
-        <v>58</v>
+      <c r="Z1" s="83" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="I2" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y2">
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,110 +2987,110 @@
         <v>2</v>
       </c>
       <c r="Z3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="Y4">
         <v>3</v>
       </c>
       <c r="Z4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="62" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="62" t="s">
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="O5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="P5" s="61" t="s">
         <v>56</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>57</v>
       </c>
       <c r="Y5">
         <v>4</v>
       </c>
       <c r="Z5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="42"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
       <c r="M6" s="43"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
@@ -3095,17 +3098,17 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="42"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="43"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -3113,17 +3116,17 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="42"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="43"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
@@ -3149,18 +3152,18 @@
     </row>
     <row r="10" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="123" t="s">
+      <c r="I11" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="123"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -3169,49 +3172,61 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
+        <v>159</v>
+      </c>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
     </row>
     <row r="13" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C15" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -3220,18 +3235,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="83" orientation="portrait" r:id="rId1"/>
@@ -3252,7 +3255,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,25 +3272,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>15</v>
       </c>
-      <c r="D1" s="129" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="H2" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3296,168 +3299,168 @@
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="G4" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="H4" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="130" t="s">
+      <c r="M4" s="131"/>
+      <c r="N4" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="116" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="41" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="41" t="s">
+      <c r="M5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="131"/>
+      <c r="N5" s="129"/>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="62" t="s">
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="62" t="s">
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="61" t="s">
         <v>54</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="A10" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
+      <c r="H10" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="111"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -3465,33 +3468,33 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="111" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="111"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
+        <v>159</v>
+      </c>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
     </row>
     <row r="14" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="31"/>
@@ -3501,6 +3504,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="H4:K5"/>
@@ -3517,17 +3531,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:N13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3548,7 +3551,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3565,37 +3568,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>16</v>
       </c>
-      <c r="D1" s="129" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="R1">
         <v>0</v>
       </c>
-      <c r="S1" s="84" t="s">
-        <v>58</v>
+      <c r="S1" s="83" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="H2" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,150 +3609,150 @@
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="G4" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="H4" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="130" t="s">
+      <c r="M4" s="131"/>
+      <c r="N4" s="118" t="s">
         <v>67</v>
-      </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="116" t="s">
-        <v>68</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="131"/>
+      <c r="N5" s="129"/>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="62" t="s">
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="62" t="s">
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="61" t="s">
         <v>54</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -3769,17 +3772,17 @@
     </row>
     <row r="11" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="111"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -3787,55 +3790,65 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="111" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="111"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
+        <v>159</v>
+      </c>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
     </row>
     <row r="14" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="16" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
+      <c r="C16" s="132" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
@@ -3852,16 +3865,6 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3885,7 +3888,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,121 +3901,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>17</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F3" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -4021,11 +4029,6 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4066,29 +4069,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>18</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="I2" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4098,228 +4101,228 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="116" t="s">
+      <c r="N4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="61" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="62" t="s">
+      <c r="V5" s="61" t="s">
         <v>85</v>
-      </c>
-      <c r="V5" s="62" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="A9" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="I9" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
+      <c r="P9" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="123" t="s">
+      <c r="P11" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="123"/>
+      <c r="Q11" s="121"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4327,42 +4330,42 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="123"/>
+      <c r="Q12" s="121"/>
       <c r="R12" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
+        <v>159</v>
+      </c>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
     </row>
     <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
@@ -4372,6 +4375,29 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -4380,29 +4406,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="96" orientation="portrait" r:id="rId1"/>
@@ -4424,7 +4427,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,29 +4449,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>19</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="I2" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4478,125 +4481,125 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="116" t="s">
+      <c r="N4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="61" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="62" t="s">
+      <c r="V5" s="61" t="s">
         <v>85</v>
-      </c>
-      <c r="V5" s="62" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
@@ -4604,24 +4607,24 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
@@ -4629,80 +4632,80 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="36"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="A9" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="I9" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
+      <c r="P9" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="123" t="s">
+      <c r="P11" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="123"/>
+      <c r="Q11" s="121"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4710,42 +4713,42 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
     </row>
     <row r="13" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
@@ -4755,6 +4758,29 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -4763,29 +4789,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4810,7 +4813,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,103 +4826,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="88">
-        <v>2018</v>
-      </c>
-      <c r="F2" s="88">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="87">
         <v>2019</v>
       </c>
-      <c r="G2" s="88">
+      <c r="F2" s="87">
         <v>2020</v>
       </c>
+      <c r="G2" s="87">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="89" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-    </row>
-    <row r="5" spans="1:7" s="71" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="112" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
+    </row>
+    <row r="5" spans="1:7" s="70" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-    </row>
-    <row r="6" spans="1:7" s="71" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="112" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:7" s="70" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-    </row>
-    <row r="7" spans="1:7" s="71" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="113" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="1:7" s="70" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-    </row>
-    <row r="8" spans="1:7" s="72" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="1:7" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="111"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="60"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -4927,31 +4930,31 @@
       <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4969,7 +4972,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4986,73 +4989,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>20</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="P1">
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="R1">
         <v>5</v>
       </c>
       <c r="S1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="T1">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V1">
         <v>7</v>
       </c>
       <c r="W1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="H2" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R2">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T2">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="V2">
         <v>8</v>
       </c>
       <c r="W2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5063,111 +5066,111 @@
         <v>4</v>
       </c>
       <c r="U3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="62" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="62" t="s">
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="62" t="s">
-        <v>54</v>
+      <c r="M5" s="61" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="95"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="35"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="35"/>
-      <c r="F7" s="95"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="35"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="95"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="35"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
       <c r="N8" s="6"/>
@@ -5189,62 +5192,74 @@
     </row>
     <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="123" t="s">
+      <c r="H11" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="123"/>
+      <c r="I11" s="121"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
@@ -5253,18 +5268,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="85" orientation="portrait" r:id="rId1"/>
@@ -5284,8 +5287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5306,29 +5309,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>21</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="I2" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5338,230 +5341,230 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="116" t="s">
+      <c r="N4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="62" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="62" t="s">
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="O5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="P5" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="62" t="s">
+      <c r="U5" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="61" t="s">
         <v>85</v>
-      </c>
-      <c r="V5" s="62" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
       <c r="M6" s="19"/>
       <c r="N6" s="25"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
       <c r="T6" s="25"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="21"/>
       <c r="N7" s="27"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
       <c r="T7" s="27"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="21"/>
       <c r="N8" s="27"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
       <c r="T8" s="27"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="A9" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="I9" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
       <c r="M9" s="28"/>
       <c r="N9" s="33"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
+      <c r="P9" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
       <c r="T9" s="33"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="123" t="s">
+      <c r="P11" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="123"/>
+      <c r="Q11" s="121"/>
       <c r="R11" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -5569,42 +5572,42 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
     </row>
     <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
@@ -5614,6 +5617,29 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -5622,29 +5648,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="92" orientation="portrait" r:id="rId1"/>
@@ -5666,7 +5669,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,102 +5683,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>22</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5783,35 +5786,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -5819,6 +5816,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -5836,7 +5839,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5851,70 +5854,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>23</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="H3" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -5922,9 +5925,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -5932,21 +5935,21 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -5954,10 +5957,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5966,28 +5969,28 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
@@ -5997,12 +6000,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6010,6 +6007,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -6030,7 +6033,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6043,30 +6046,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>24</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -6075,86 +6078,86 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6188,7 +6191,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,24 +6205,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>25</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="K1">
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6229,99 +6232,99 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6329,40 +6332,34 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6370,6 +6367,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -6387,7 +6390,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6401,80 +6404,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>26</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="135" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="135" t="s">
-        <v>123</v>
       </c>
       <c r="F3" s="135"/>
       <c r="G3" s="135"/>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="133" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="131"/>
+      <c r="H4" s="129"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="62" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="136"/>
       <c r="C6" s="136"/>
@@ -6486,7 +6489,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="134"/>
       <c r="C7" s="134"/>
@@ -6498,7 +6501,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="134"/>
       <c r="C8" s="134"/>
@@ -6510,7 +6513,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -6522,7 +6525,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="134"/>
       <c r="C10" s="134"/>
@@ -6534,7 +6537,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="134"/>
       <c r="C11" s="134"/>
@@ -6546,7 +6549,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="134"/>
       <c r="C12" s="134"/>
@@ -6558,7 +6561,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="134"/>
@@ -6570,7 +6573,7 @@
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
@@ -6582,7 +6585,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
@@ -6594,7 +6597,7 @@
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="134"/>
       <c r="C16" s="134"/>
@@ -6606,7 +6609,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="134"/>
@@ -6618,9 +6621,9 @@
     </row>
     <row r="18" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16"/>
@@ -6628,10 +6631,10 @@
     </row>
     <row r="19" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="123"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6640,28 +6643,28 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
     </row>
     <row r="22" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
@@ -6671,6 +6674,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="H3:H4"/>
@@ -6687,14 +6698,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -6711,8 +6714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6726,29 +6729,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>27</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
       <c r="I1">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L1">
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6758,86 +6761,86 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6850,52 +6853,47 @@
     </row>
     <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6903,6 +6901,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -6920,7 +6923,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6934,29 +6937,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>28</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K1">
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6966,72 +6969,72 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="87" t="s">
-        <v>58</v>
+      <c r="L4" s="86" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -7039,23 +7042,23 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -7070,57 +7073,52 @@
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7128,6 +7126,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="93" orientation="portrait" r:id="rId1"/>
@@ -7145,7 +7148,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7158,23 +7161,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>29</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7184,74 +7187,74 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7264,41 +7267,41 @@
     </row>
     <row r="9" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -7306,11 +7309,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7318,6 +7316,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7335,10 +7338,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7346,197 +7349,173 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="1.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="7" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="117" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="117"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4">
-        <v>2018</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2019</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="59"/>
+    </row>
+    <row r="14" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="s">
+    </row>
+    <row r="16" spans="1:5" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-    </row>
-    <row r="16" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+    </row>
+    <row r="17" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7557,7 +7536,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7570,55 +7549,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>4</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F3" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G3" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7632,176 +7611,176 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="A6" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="36"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="A7" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="36"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="A8" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="36"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
+      <c r="A9" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="36"/>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
+      <c r="A10" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="36"/>
       <c r="F10" s="57"/>
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
+      <c r="A11" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="36"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
+      <c r="A12" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="36"/>
       <c r="F12" s="57"/>
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
+      <c r="A13" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="36"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
+      <c r="A14" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="36"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
+      <c r="A15" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="36"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="111"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="60"/>
     </row>
     <row r="19" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
     </row>
     <row r="20" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7822,7 +7801,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7836,55 +7815,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="A3" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F3" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G3" s="50">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7898,116 +7877,116 @@
       <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
+      <c r="A6" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="122" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
+      <c r="B7" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="36"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="122" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
+      <c r="B8" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="36"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
+      <c r="B9" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="36"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
+      <c r="A10" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="123"/>
+      <c r="B13" s="121"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="124" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
     </row>
     <row r="15" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8025,7 +8004,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8038,63 +8017,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>6</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="46"/>
@@ -8102,9 +8081,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="27"/>
       <c r="F6" s="47"/>
       <c r="G6" s="46"/>
@@ -8112,39 +8091,31 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="27"/>
       <c r="F7" s="47"/>
       <c r="G7" s="46"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="28">
-        <v>24</v>
-      </c>
-      <c r="F8" s="48">
-        <f>SUM(F5:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="28">
-        <f>SUM(G5:G7)</f>
-        <v>0</v>
-      </c>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8152,29 +8123,34 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -8183,11 +8159,6 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8205,7 +8176,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8218,63 +8189,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>7</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -8282,9 +8253,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -8292,31 +8263,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8324,35 +8295,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -8360,6 +8325,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8377,7 +8348,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8390,63 +8361,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>8</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="46"/>
@@ -8454,9 +8425,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="46"/>
@@ -8464,31 +8435,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
       <c r="G7" s="46"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="33"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8496,29 +8467,34 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -8527,11 +8503,6 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8549,7 +8520,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8562,63 +8533,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1">
         <v>9</v>
       </c>
-      <c r="D1" s="115" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -8626,9 +8597,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -8636,31 +8607,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8668,35 +8639,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -8704,6 +8669,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\podesscript\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FA082D-D628-4334-82B8-E15B2DF0B7E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF09CE3-5736-4C3B-A903-0FB0DA26A247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2355" windowWidth="10905" windowHeight="14025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -800,9 +800,6 @@
     <t>Kemudahan Mencapai Sarana Kesehatan Terdekat Bagi Desa/Kelurahan yang Tidak ada Sarana Kesehatan Menurut Desa/Kelurahan dan Jenis Sarana Kesehatan di Kecamatan xxx, 2021</t>
   </si>
   <si>
-    <t>Banyaknya Warga Penderita Gizi Buruk Menurut Desa/Kelurahan di Kecamatan xxx, 2019 dan 2020</t>
-  </si>
-  <si>
     <t>Banyaknya Kejadian Bencana Alam Menurut Desa/Kelurahan dan Jenis Bencana Alam di Kecamatan xxx, 2021</t>
   </si>
   <si>
@@ -849,6 +846,9 @@
     <t>Banyaknya Desa/Kelurahan Menurut Jenis Bahan Bakar
 untuk Memasak yang Digunakan Oleh Sebagian Besar
 Keluarga di Kecamatan xxx, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Warga Penderita Gizi Buruk Menurut Desa/Kelurahan di Kecamatan xxx, 2020 dan 2021</t>
   </si>
 </sst>
 </file>
@@ -1669,6 +1669,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1733,9 +1736,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2241,31 +2241,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>10</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -2277,12 +2277,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -2295,9 +2295,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2305,9 +2305,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2315,21 +2315,21 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28">
         <v>0</v>
       </c>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2353,17 +2353,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -2420,31 +2420,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>11</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -2456,12 +2456,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -2474,9 +2474,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="19"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -2484,9 +2484,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -2494,31 +2494,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2526,17 +2526,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -2593,31 +2593,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>12</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -2629,12 +2629,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -2647,9 +2647,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2657,9 +2657,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2667,31 +2667,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2699,17 +2699,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -2765,31 +2765,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>13</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -2801,12 +2801,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -2819,9 +2819,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2829,9 +2829,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2839,31 +2839,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2871,17 +2871,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -2945,20 +2945,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>14</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="Y1">
         <v>0</v>
       </c>
@@ -2991,12 +2991,12 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
@@ -3009,12 +3009,12 @@
       <c r="H4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="118" t="s">
+      <c r="I4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
       <c r="M4" s="3" t="s">
         <v>49</v>
       </c>
@@ -3035,12 +3035,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -3053,12 +3053,12 @@
       <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
       <c r="M5" s="61" t="s">
         <v>53</v>
       </c>
@@ -3080,17 +3080,17 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="42"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
       <c r="M6" s="43"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
@@ -3098,17 +3098,17 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="42"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="43"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -3116,17 +3116,17 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="42"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="43"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
@@ -3152,18 +3152,18 @@
     </row>
     <row r="10" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="121" t="s">
+      <c r="I11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="121"/>
+      <c r="J11" s="122"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -3172,26 +3172,26 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121" t="s">
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="121"/>
-      <c r="K12" s="128" t="s">
+      <c r="J12" s="122"/>
+      <c r="K12" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
     </row>
     <row r="13" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="95"/>
@@ -3272,19 +3272,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>15</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3299,62 +3299,62 @@
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="131" t="s">
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="118" t="s">
+      <c r="M4" s="132"/>
+      <c r="N4" s="119" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
       <c r="L5" s="41" t="s">
         <v>68</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="129"/>
+      <c r="N5" s="130"/>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="61" t="s">
         <v>8</v>
       </c>
@@ -3364,12 +3364,12 @@
       <c r="G6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="61" t="s">
         <v>11</v>
       </c>
@@ -3382,76 +3382,76 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3468,24 +3468,24 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="104" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="104"/>
-      <c r="J13" s="128" t="s">
+      <c r="J13" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
     </row>
     <row r="14" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="95"/>
@@ -3568,19 +3568,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>16</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
       <c r="R1">
         <v>0</v>
       </c>
@@ -3613,32 +3613,32 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="131" t="s">
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="118" t="s">
+      <c r="M4" s="132"/>
+      <c r="N4" s="119" t="s">
         <v>67</v>
       </c>
       <c r="R4">
@@ -3649,24 +3649,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
       <c r="L5" s="41" t="s">
         <v>68</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="129"/>
+      <c r="N5" s="130"/>
       <c r="R5">
         <v>4</v>
       </c>
@@ -3675,12 +3675,12 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="61" t="s">
         <v>8</v>
       </c>
@@ -3690,12 +3690,12 @@
       <c r="G6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="61" t="s">
         <v>11</v>
       </c>
@@ -3708,48 +3708,48 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="71"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="71"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="71"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="71"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
       <c r="L9" s="71"/>
       <c r="M9" s="71"/>
       <c r="N9" s="71"/>
@@ -3772,8 +3772,8 @@
     </row>
     <row r="11" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3790,24 +3790,24 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="104" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="104"/>
-      <c r="J13" s="128" t="s">
+      <c r="J13" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
     </row>
     <row r="14" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="95"/>
@@ -3819,20 +3819,20 @@
       <c r="G14" s="95"/>
     </row>
     <row r="16" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="31"/>
@@ -3901,44 +3901,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>17</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F3" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -3948,63 +3948,63 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -4069,20 +4069,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>18</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4101,12 +4101,12 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
@@ -4119,12 +4119,12 @@
       <c r="H4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="118" t="s">
+      <c r="I4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
       <c r="M4" s="4" t="s">
         <v>78</v>
       </c>
@@ -4134,12 +4134,12 @@
       <c r="O4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="118" t="s">
+      <c r="P4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
       <c r="T4" s="4" t="s">
         <v>81</v>
       </c>
@@ -4151,12 +4151,12 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -4169,12 +4169,12 @@
       <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
       <c r="M5" s="61" t="s">
         <v>53</v>
       </c>
@@ -4184,12 +4184,12 @@
       <c r="O5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="119" t="s">
+      <c r="P5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
       <c r="T5" s="61" t="s">
         <v>56</v>
       </c>
@@ -4202,127 +4202,127 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="130" t="s">
+      <c r="I9" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="130" t="s">
+      <c r="P9" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="121" t="s">
+      <c r="P11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="121"/>
+      <c r="Q11" s="122"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4330,32 +4330,32 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121" t="s">
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="128" t="s">
+      <c r="Q12" s="122"/>
+      <c r="R12" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
     </row>
     <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="95"/>
@@ -4449,20 +4449,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>19</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4481,12 +4481,12 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
@@ -4499,12 +4499,12 @@
       <c r="H4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="118" t="s">
+      <c r="I4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
       <c r="M4" s="4" t="s">
         <v>78</v>
       </c>
@@ -4514,12 +4514,12 @@
       <c r="O4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="118" t="s">
+      <c r="P4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
       <c r="T4" s="4" t="s">
         <v>81</v>
       </c>
@@ -4531,12 +4531,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -4549,12 +4549,12 @@
       <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
       <c r="M5" s="61" t="s">
         <v>53</v>
       </c>
@@ -4564,12 +4564,12 @@
       <c r="O5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="119" t="s">
+      <c r="P5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
       <c r="T5" s="61" t="s">
         <v>56</v>
       </c>
@@ -4582,24 +4582,24 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
@@ -4607,24 +4607,24 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
@@ -4632,80 +4632,80 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="36"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="126" t="s">
+      <c r="P9" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="121" t="s">
+      <c r="P11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="121"/>
+      <c r="Q11" s="122"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4713,32 +4713,32 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121" t="s">
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121" t="s">
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
     </row>
     <row r="13" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="95"/>
@@ -4989,19 +4989,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>20</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
       <c r="P1">
         <v>1</v>
       </c>
@@ -5070,12 +5070,12 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="4" t="s">
         <v>88</v>
       </c>
@@ -5085,12 +5085,12 @@
       <c r="G4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
       <c r="L4" s="4" t="s">
         <v>91</v>
       </c>
@@ -5099,12 +5099,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -5114,12 +5114,12 @@
       <c r="G5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="61" t="s">
         <v>11</v>
       </c>
@@ -5129,48 +5129,48 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="35"/>
       <c r="F6" s="93"/>
       <c r="G6" s="35"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="35"/>
       <c r="F7" s="93"/>
       <c r="G7" s="35"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="35"/>
       <c r="F8" s="93"/>
       <c r="G8" s="35"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
       <c r="N8" s="6"/>
@@ -5192,40 +5192,40 @@
     </row>
     <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="121" t="s">
+      <c r="H11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="121"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121" t="s">
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121" t="s">
+      <c r="I12" s="122"/>
+      <c r="J12" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="95"/>
@@ -5309,20 +5309,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>21</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5341,12 +5341,12 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="4" t="s">
         <v>97</v>
       </c>
@@ -5359,12 +5359,12 @@
       <c r="H4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="118" t="s">
+      <c r="I4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
       <c r="M4" s="4" t="s">
         <v>101</v>
       </c>
@@ -5374,12 +5374,12 @@
       <c r="O4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="118" t="s">
+      <c r="P4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
       <c r="T4" s="4" t="s">
         <v>104</v>
       </c>
@@ -5391,12 +5391,12 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -5409,12 +5409,12 @@
       <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
       <c r="M5" s="61" t="s">
         <v>53</v>
       </c>
@@ -5424,12 +5424,12 @@
       <c r="O5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="119" t="s">
+      <c r="P5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
       <c r="T5" s="61" t="s">
         <v>56</v>
       </c>
@@ -5442,127 +5442,127 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
       <c r="M6" s="19"/>
       <c r="N6" s="25"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
       <c r="T6" s="25"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="21"/>
       <c r="N7" s="27"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
       <c r="T7" s="27"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="21"/>
       <c r="N8" s="27"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
       <c r="T8" s="27"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="28"/>
       <c r="N9" s="33"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="126" t="s">
+      <c r="P9" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
       <c r="T9" s="33"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="121" t="s">
+      <c r="P11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="121"/>
+      <c r="Q11" s="122"/>
       <c r="R11" s="34" t="s">
         <v>107</v>
       </c>
@@ -5572,32 +5572,32 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121" t="s">
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121" t="s">
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
     </row>
     <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="95"/>
@@ -5683,31 +5683,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>22</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>108</v>
       </c>
@@ -5719,12 +5719,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -5737,48 +5737,48 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5786,17 +5786,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -5854,32 +5854,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>23</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>111</v>
       </c>
@@ -5894,12 +5894,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -5915,9 +5915,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -5925,9 +5925,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -5935,21 +5935,21 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -5957,10 +5957,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5969,18 +5969,18 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -6046,30 +6046,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>24</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -6078,12 +6078,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -6093,63 +6093,63 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -6190,8 +6190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6205,19 +6205,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>25</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
       <c r="K1">
         <v>1</v>
       </c>
@@ -6236,12 +6236,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>115</v>
       </c>
@@ -6259,12 +6259,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -6283,48 +6283,48 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6332,17 +6332,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -6404,46 +6404,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>26</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="135" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="133" t="s">
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="134" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="13" t="s">
         <v>124</v>
       </c>
@@ -6453,15 +6453,15 @@
       <c r="G4" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="129"/>
+      <c r="H4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -6476,144 +6476,144 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -6621,9 +6621,9 @@
     </row>
     <row r="18" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16"/>
@@ -6631,10 +6631,10 @@
     </row>
     <row r="19" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="121"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6643,18 +6643,18 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121" t="s">
+      <c r="B21" s="122"/>
+      <c r="C21" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
     </row>
     <row r="22" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="95"/>
@@ -6729,18 +6729,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>27</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
       <c r="I1">
         <v>1</v>
       </c>
@@ -6771,12 +6771,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>138</v>
       </c>
@@ -6797,12 +6797,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -6818,27 +6818,27 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="84"/>
       <c r="F7" s="84"/>
       <c r="G7" s="6"/>
@@ -6853,26 +6853,26 @@
     </row>
     <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -6937,18 +6937,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>28</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
       <c r="H1">
         <v>1</v>
       </c>
@@ -6979,12 +6979,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>144</v>
       </c>
@@ -7005,12 +7005,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -7032,9 +7032,9 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -7047,18 +7047,18 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -7073,26 +7073,26 @@
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -7161,18 +7161,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>29</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
       <c r="H1">
         <v>1</v>
       </c>
@@ -7191,12 +7191,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>151</v>
       </c>
@@ -7211,12 +7211,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -7232,27 +7232,27 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="85"/>
       <c r="F6" s="85"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="85"/>
       <c r="F7" s="85"/>
       <c r="G7" s="6"/>
@@ -7267,26 +7267,26 @@
     </row>
     <row r="9" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -7340,7 +7340,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -7354,40 +7354,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="118"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="94" t="s">
         <v>8</v>
       </c>
@@ -7418,8 +7418,8 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="137" t="s">
-        <v>207</v>
+      <c r="A8" s="115" t="s">
+        <v>206</v>
       </c>
       <c r="B8" s="114"/>
       <c r="C8" s="114"/>
@@ -7427,8 +7427,8 @@
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137" t="s">
-        <v>208</v>
+      <c r="A9" s="115" t="s">
+        <v>207</v>
       </c>
       <c r="B9" s="114"/>
       <c r="C9" s="114"/>
@@ -7464,9 +7464,9 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7549,31 +7549,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>4</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -7585,12 +7585,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -7722,9 +7722,9 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
       <c r="G16" s="59"/>
@@ -7801,7 +7801,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7815,31 +7815,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -7851,12 +7851,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -7877,83 +7877,83 @@
       <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
       <c r="G6" s="92"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="36"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="36"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="36"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="92"/>
       <c r="F10" s="92"/>
       <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="121"/>
+      <c r="B13" s="122"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122" t="s">
+      <c r="B14" s="122"/>
+      <c r="C14" s="123" t="s">
         <v>178</v>
       </c>
       <c r="D14" s="104"/>
@@ -8017,31 +8017,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>6</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -8053,12 +8053,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -8071,9 +8071,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="46"/>
@@ -8081,9 +8081,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="27"/>
       <c r="F6" s="47"/>
       <c r="G6" s="46"/>
@@ -8091,31 +8091,31 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="27"/>
       <c r="F7" s="47"/>
       <c r="G7" s="46"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="48"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8123,17 +8123,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -8189,31 +8189,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>7</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -8225,12 +8225,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -8243,9 +8243,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -8253,9 +8253,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -8263,31 +8263,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8295,17 +8295,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -8361,31 +8361,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>8</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -8397,12 +8397,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -8415,9 +8415,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="46"/>
@@ -8425,9 +8425,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="46"/>
@@ -8435,31 +8435,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
       <c r="G7" s="46"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="33"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8467,17 +8467,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>
@@ -8533,31 +8533,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="1">
         <v>9</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -8569,12 +8569,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -8587,9 +8587,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -8597,9 +8597,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -8607,31 +8607,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8639,17 +8639,17 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95"/>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\podesscript\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF09CE3-5736-4C3B-A903-0FB0DA26A247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B7C49-6D32-44BB-A139-3515625BB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -60,6 +60,16 @@
     <definedName name="_xlnm.Print_Area" localSheetId="28">'T29'!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2737,7 +2747,7 @@
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="97" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
     <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
@@ -5668,8 +5678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,7 +5834,7 @@
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="91" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
     <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
@@ -5839,7 +5849,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,7 +6025,7 @@
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="91" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
     <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
@@ -6190,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,7 +6385,7 @@
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="87" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
     <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
@@ -6390,7 +6400,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6700,7 +6710,7 @@
     <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
     <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
@@ -6715,7 +6725,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6908,7 +6918,7 @@
     <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="98" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
     <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
@@ -6923,7 +6933,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7133,7 +7143,7 @@
     <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="11" scale="93" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1">
     <oddHeader>&amp;R&amp;"Calibri,Regular"&amp;10NAMA BAB</oddHeader>
     <oddFooter>&amp;R&amp;10Kecamatan XXX Dalam Angka 2020  |   &amp;P</oddFooter>
@@ -7147,8 +7157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\podesscript\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC PRO L5V\Downloads\podesscript-1\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B7C49-6D32-44BB-A139-3515625BB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -864,7 +863,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#\ ###\ ##0.00"/>
     <numFmt numFmtId="165" formatCode="#\ ###\ ##0"/>
@@ -1619,31 +1618,52 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="3" applyBorder="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -1655,26 +1675,20 @@
     <xf numFmtId="49" fontId="35" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1685,20 +1699,11 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1706,11 +1711,8 @@
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1718,46 +1720,43 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="39" fillId="0" borderId="9" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="isi tabel" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Judul Kolom" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Judul tabel" xfId="4" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Jumlah" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="no kolom" xfId="3" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="isi tabel" xfId="5"/>
+    <cellStyle name="Judul Kolom" xfId="1"/>
+    <cellStyle name="Judul tabel" xfId="4"/>
+    <cellStyle name="Jumlah" xfId="6"/>
+    <cellStyle name="no kolom" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="stub" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="sumber" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="stub" xfId="2"/>
+    <cellStyle name="sumber" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2058,7 +2057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2075,34 +2074,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="97" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="97"/>
       <c r="G2" s="97"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="102" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2123,12 +2122,12 @@
       <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="63" t="s">
         <v>8</v>
       </c>
@@ -2173,54 +2172,54 @@
       <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="68"/>
       <c r="F8" s="69"/>
       <c r="G8" s="68"/>
       <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
     </row>
     <row r="10" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2234,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2251,31 +2250,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>10</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -2287,12 +2286,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -2305,9 +2304,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2315,9 +2314,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2325,21 +2324,21 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="28">
         <v>0</v>
       </c>
@@ -2352,10 +2351,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2363,29 +2362,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -2393,12 +2398,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2412,7 +2411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2430,31 +2429,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>11</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -2466,12 +2465,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -2484,9 +2483,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="19"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -2494,9 +2493,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="21"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -2504,31 +2503,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2536,34 +2535,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -2572,6 +2566,11 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2585,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2603,31 +2602,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>12</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -2639,12 +2638,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -2657,9 +2656,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2667,9 +2666,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2677,31 +2676,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2709,29 +2708,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -2739,12 +2744,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="97" orientation="portrait" r:id="rId1"/>
@@ -2758,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2775,31 +2774,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>13</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -2811,12 +2810,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -2829,9 +2828,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2839,9 +2838,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2849,31 +2848,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2881,29 +2880,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -2911,12 +2916,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -2930,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2955,20 +2954,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>14</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
       <c r="Y1">
         <v>0</v>
       </c>
@@ -3001,12 +3000,12 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
@@ -3019,12 +3018,12 @@
       <c r="H4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="3" t="s">
         <v>49</v>
       </c>
@@ -3045,12 +3044,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -3063,12 +3062,12 @@
       <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="61" t="s">
         <v>53</v>
       </c>
@@ -3090,17 +3089,17 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="42"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="43"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
@@ -3108,17 +3107,17 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="42"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="43"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -3126,17 +3125,17 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="42"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
       <c r="M8" s="43"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
@@ -3162,18 +3161,18 @@
     </row>
     <row r="10" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="122" t="s">
+      <c r="I11" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="122"/>
+      <c r="J11" s="124"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -3182,36 +3181,36 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122" t="s">
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="122"/>
+      <c r="J12" s="124"/>
       <c r="K12" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
     </row>
     <row r="13" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C15" s="31" t="s">
@@ -3225,18 +3224,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -3245,6 +3232,18 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="83" orientation="portrait" r:id="rId1"/>
@@ -3261,7 +3260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3282,19 +3281,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>15</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3309,62 +3308,62 @@
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="132" t="s">
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="132"/>
-      <c r="N4" s="119" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="116" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
       <c r="L5" s="41" t="s">
         <v>68</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="130"/>
+      <c r="N5" s="131"/>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="61" t="s">
         <v>8</v>
       </c>
@@ -3374,12 +3373,12 @@
       <c r="G6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="61" t="s">
         <v>11</v>
       </c>
@@ -3392,85 +3391,85 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="131" t="s">
+      <c r="H10" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="104"/>
+      <c r="I12" s="111"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -3478,33 +3477,33 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="104" t="s">
+      <c r="A13" s="124"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="104"/>
+      <c r="I13" s="111"/>
       <c r="J13" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
     </row>
     <row r="14" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="31"/>
@@ -3514,17 +3513,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="H4:K5"/>
@@ -3541,6 +3529,17 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:N13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3557,7 +3556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3578,19 +3577,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>16</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
       <c r="R1">
         <v>0</v>
       </c>
@@ -3623,32 +3622,32 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="132" t="s">
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="132"/>
-      <c r="N4" s="119" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="116" t="s">
         <v>67</v>
       </c>
       <c r="R4">
@@ -3659,24 +3658,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
       <c r="L5" s="41" t="s">
         <v>68</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="130"/>
+      <c r="N5" s="131"/>
       <c r="R5">
         <v>4</v>
       </c>
@@ -3685,12 +3684,12 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="61" t="s">
         <v>8</v>
       </c>
@@ -3700,12 +3699,12 @@
       <c r="G6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="61" t="s">
         <v>11</v>
       </c>
@@ -3718,48 +3717,48 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="71"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="71"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
       <c r="L8" s="71"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="71"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="L9" s="71"/>
       <c r="M9" s="71"/>
       <c r="N9" s="71"/>
@@ -3782,17 +3781,17 @@
     </row>
     <row r="11" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="104"/>
+      <c r="I12" s="111"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -3800,33 +3799,33 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="104" t="s">
+      <c r="A13" s="124"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="104"/>
+      <c r="I13" s="111"/>
       <c r="J13" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
     </row>
     <row r="14" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
     </row>
     <row r="16" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="133" t="s">
@@ -3849,16 +3848,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
@@ -3875,6 +3864,16 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -3891,7 +3890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -3911,30 +3910,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>17</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2020</v>
       </c>
@@ -3943,12 +3942,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -3958,79 +3957,74 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -4039,6 +4033,11 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4052,7 +4051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4079,20 +4078,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>18</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4111,12 +4110,12 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
@@ -4129,12 +4128,12 @@
       <c r="H4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="4" t="s">
         <v>78</v>
       </c>
@@ -4144,12 +4143,12 @@
       <c r="O4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="119" t="s">
+      <c r="P4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="4" t="s">
         <v>81</v>
       </c>
@@ -4161,12 +4160,12 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -4179,12 +4178,12 @@
       <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="61" t="s">
         <v>53</v>
       </c>
@@ -4194,12 +4193,12 @@
       <c r="O5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="120" t="s">
+      <c r="P5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="61" t="s">
         <v>56</v>
       </c>
@@ -4212,127 +4211,127 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="131" t="s">
+      <c r="P9" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="122" t="s">
+      <c r="P11" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="122"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4340,42 +4339,42 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122" t="s">
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="122"/>
+      <c r="Q12" s="124"/>
       <c r="R12" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
     </row>
     <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
@@ -4385,29 +4384,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -4416,6 +4392,29 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="96" orientation="portrait" r:id="rId1"/>
@@ -4433,7 +4432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4459,20 +4458,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>19</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4491,12 +4490,12 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
@@ -4509,12 +4508,12 @@
       <c r="H4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="4" t="s">
         <v>78</v>
       </c>
@@ -4524,12 +4523,12 @@
       <c r="O4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="119" t="s">
+      <c r="P4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="4" t="s">
         <v>81</v>
       </c>
@@ -4541,12 +4540,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -4559,12 +4558,12 @@
       <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="61" t="s">
         <v>53</v>
       </c>
@@ -4574,12 +4573,12 @@
       <c r="O5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="120" t="s">
+      <c r="P5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="61" t="s">
         <v>56</v>
       </c>
@@ -4592,24 +4591,24 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
@@ -4617,24 +4616,24 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
@@ -4642,80 +4641,80 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="36"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="127" t="s">
+      <c r="I9" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="127" t="s">
+      <c r="P9" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="122" t="s">
+      <c r="P11" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="122"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4723,42 +4722,42 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122" t="s">
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122" t="s">
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
     </row>
     <row r="13" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
@@ -4768,29 +4767,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -4799,6 +4775,29 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4816,7 +4815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4836,27 +4835,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="104"/>
       <c r="C1" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="87">
         <v>2019</v>
       </c>
@@ -4868,12 +4867,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="88" t="s">
         <v>8</v>
       </c>
@@ -4885,54 +4884,54 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
       <c r="G4" s="90"/>
     </row>
     <row r="5" spans="1:7" s="70" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="72"/>
       <c r="F5" s="73"/>
       <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" s="70" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="72"/>
       <c r="F6" s="73"/>
       <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7" s="70" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="74"/>
       <c r="F7" s="75"/>
       <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="104"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="60"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -4940,31 +4939,31 @@
       <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -4978,7 +4977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4999,19 +4998,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>20</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
       <c r="P1">
         <v>1</v>
       </c>
@@ -5080,12 +5079,12 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>88</v>
       </c>
@@ -5095,12 +5094,12 @@
       <c r="G4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
       <c r="L4" s="4" t="s">
         <v>91</v>
       </c>
@@ -5109,12 +5108,12 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -5124,12 +5123,12 @@
       <c r="G5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
       <c r="L5" s="61" t="s">
         <v>11</v>
       </c>
@@ -5139,48 +5138,48 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="35"/>
       <c r="F6" s="93"/>
       <c r="G6" s="35"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="35"/>
       <c r="F7" s="93"/>
       <c r="G7" s="35"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="35"/>
       <c r="F8" s="93"/>
       <c r="G8" s="35"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
       <c r="N8" s="6"/>
@@ -5202,49 +5201,49 @@
     </row>
     <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="122"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122" t="s">
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122" t="s">
+      <c r="I12" s="124"/>
+      <c r="J12" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="31" t="s">
@@ -5258,18 +5257,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="I8:K8"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
@@ -5278,6 +5265,18 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="85" orientation="portrait" r:id="rId1"/>
@@ -5294,11 +5293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5319,20 +5318,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>21</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5351,12 +5350,12 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="4" t="s">
         <v>97</v>
       </c>
@@ -5369,12 +5368,12 @@
       <c r="H4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="4" t="s">
         <v>101</v>
       </c>
@@ -5384,12 +5383,12 @@
       <c r="O4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="119" t="s">
+      <c r="P4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="4" t="s">
         <v>104</v>
       </c>
@@ -5401,12 +5400,12 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -5419,12 +5418,12 @@
       <c r="H5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="61" t="s">
         <v>53</v>
       </c>
@@ -5434,12 +5433,12 @@
       <c r="O5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="120" t="s">
+      <c r="P5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="61" t="s">
         <v>56</v>
       </c>
@@ -5452,127 +5451,127 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="19"/>
       <c r="N6" s="25"/>
       <c r="O6" s="19"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
       <c r="T6" s="25"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="21"/>
       <c r="N7" s="27"/>
       <c r="O7" s="21"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
       <c r="T7" s="27"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
       <c r="M8" s="21"/>
       <c r="N8" s="27"/>
       <c r="O8" s="21"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
       <c r="T8" s="27"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="127" t="s">
+      <c r="I9" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
       <c r="M9" s="28"/>
       <c r="N9" s="33"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="127" t="s">
+      <c r="P9" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
       <c r="T9" s="33"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="122" t="s">
+      <c r="P11" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="122"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="34" t="s">
         <v>107</v>
       </c>
@@ -5582,42 +5581,42 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122" t="s">
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122" t="s">
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
     </row>
     <row r="13" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C15" s="31"/>
@@ -5627,29 +5626,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:H13"/>
@@ -5658,6 +5634,29 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="92" orientation="portrait" r:id="rId1"/>
@@ -5675,11 +5674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,31 +5692,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>22</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>108</v>
       </c>
@@ -5729,12 +5728,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -5747,48 +5746,48 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5796,29 +5795,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -5826,12 +5831,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="91" orientation="portrait" r:id="rId1"/>
@@ -5845,7 +5844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -5864,32 +5863,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>23</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>111</v>
       </c>
@@ -5904,12 +5903,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -5925,9 +5924,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -5935,9 +5934,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -5945,21 +5944,21 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -5967,10 +5966,10 @@
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5979,28 +5978,28 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
@@ -6010,6 +6009,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6017,12 +6022,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="91" orientation="portrait" r:id="rId1"/>
@@ -6036,7 +6035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6056,30 +6055,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>24</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -6088,12 +6087,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -6103,71 +6102,71 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
     </row>
     <row r="12" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6197,7 +6196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6215,19 +6214,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>25</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
       <c r="K1">
         <v>1</v>
       </c>
@@ -6246,12 +6245,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>115</v>
       </c>
@@ -6269,12 +6268,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -6293,48 +6292,48 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6342,26 +6341,26 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
@@ -6370,6 +6369,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6377,12 +6382,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="87" orientation="portrait" r:id="rId1"/>
@@ -6396,7 +6395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6414,46 +6413,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>26</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="136" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="134" t="s">
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="137" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="13" t="s">
         <v>124</v>
       </c>
@@ -6463,15 +6462,15 @@
       <c r="G4" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="130"/>
+      <c r="H4" s="131"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="61" t="s">
         <v>8</v>
       </c>
@@ -6486,144 +6485,144 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -6631,9 +6630,9 @@
     </row>
     <row r="18" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16"/>
@@ -6641,10 +6640,10 @@
     </row>
     <row r="19" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="122"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6653,28 +6652,28 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122" t="s">
+      <c r="B21" s="124"/>
+      <c r="C21" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
     </row>
     <row r="22" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
@@ -6684,14 +6683,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="H3:H4"/>
@@ -6708,6 +6699,14 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="89" orientation="portrait" r:id="rId1"/>
@@ -6721,7 +6720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6739,18 +6738,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>27</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
       <c r="I1">
         <v>1</v>
       </c>
@@ -6781,12 +6780,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>138</v>
       </c>
@@ -6807,12 +6806,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -6828,27 +6827,27 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="84"/>
       <c r="F7" s="84"/>
       <c r="G7" s="6"/>
@@ -6863,34 +6862,34 @@
     </row>
     <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
     </row>
     <row r="12" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
@@ -6904,6 +6903,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -6911,11 +6915,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="98" orientation="portrait" r:id="rId1"/>
@@ -6929,7 +6928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6947,18 +6946,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>28</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
       <c r="H1">
         <v>1</v>
       </c>
@@ -6989,12 +6988,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>144</v>
       </c>
@@ -7015,12 +7014,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -7042,9 +7041,9 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -7057,18 +7056,18 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -7083,34 +7082,34 @@
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
     </row>
     <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
@@ -7129,6 +7128,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7136,11 +7140,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" scale="80" orientation="portrait" r:id="rId1"/>
@@ -7154,10 +7153,10 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -7171,18 +7170,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>29</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
       <c r="H1">
         <v>1</v>
       </c>
@@ -7201,12 +7200,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>151</v>
       </c>
@@ -7221,12 +7220,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -7242,27 +7241,27 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="85"/>
       <c r="F6" s="85"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="85"/>
       <c r="F7" s="85"/>
       <c r="G7" s="6"/>
@@ -7277,34 +7276,34 @@
     </row>
     <row r="9" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
     </row>
     <row r="12" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
@@ -7319,6 +7318,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -7326,11 +7330,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7344,7 +7343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7364,40 +7363,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="118"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="94" t="s">
         <v>8</v>
       </c>
@@ -7410,110 +7409,105 @@
       <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="104"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104" t="s">
+      <c r="B16" s="111"/>
+      <c r="C16" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
     </row>
     <row r="17" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="A7:D7"/>
@@ -7526,6 +7520,11 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7539,7 +7538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7559,31 +7558,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>4</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -7595,12 +7594,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -7621,176 +7620,176 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
       <c r="E6" s="36"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="36"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="36"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="36"/>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="36"/>
       <c r="F10" s="57"/>
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="36"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="36"/>
       <c r="F12" s="57"/>
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="36"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="36"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="36"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="104"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="60"/>
     </row>
     <row r="19" spans="1:7" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104" t="s">
+      <c r="B19" s="111"/>
+      <c r="C19" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
     </row>
     <row r="20" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -7804,7 +7803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7825,31 +7824,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4">
         <v>2019</v>
       </c>
@@ -7861,12 +7860,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -7887,116 +7886,116 @@
       <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
       <c r="G6" s="92"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="36"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="36"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="36"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="92"/>
       <c r="F10" s="92"/>
       <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="124"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123" t="s">
+      <c r="B14" s="124"/>
+      <c r="C14" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8010,7 +8009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8027,31 +8026,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>6</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -8063,12 +8062,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -8081,9 +8080,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="46"/>
@@ -8091,9 +8090,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="27"/>
       <c r="F6" s="47"/>
       <c r="G6" s="46"/>
@@ -8101,31 +8100,31 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="27"/>
       <c r="F7" s="47"/>
       <c r="G7" s="46"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="28"/>
       <c r="F8" s="48"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8133,34 +8132,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -8169,6 +8163,11 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8182,7 +8181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8199,31 +8198,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>7</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -8235,12 +8234,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -8253,9 +8252,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -8263,9 +8262,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -8273,31 +8272,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8305,29 +8304,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -8335,12 +8340,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8354,7 +8353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8371,31 +8370,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>8</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -8407,12 +8406,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -8425,9 +8424,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="46"/>
@@ -8435,9 +8434,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="46"/>
@@ -8445,31 +8444,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
       <c r="G7" s="46"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="33"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8477,34 +8476,29 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:B11"/>
@@ -8513,6 +8507,11 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
@@ -8526,7 +8525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -8543,31 +8542,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1">
         <v>9</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
@@ -8579,12 +8578,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
@@ -8597,9 +8596,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="15"/>
@@ -8607,9 +8606,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="15"/>
@@ -8617,31 +8616,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="15"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8649,29 +8648,35 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:B1"/>
@@ -8679,12 +8684,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.59055118110236204" top="0.78740157480314998" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
